--- a/Energy Consumption30.xlsx
+++ b/Energy Consumption30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.483146167905906</v>
+        <v>0.4733849228047293</v>
       </c>
       <c r="C2" t="n">
-        <v>1.44537408089663</v>
+        <v>0.620988910059761</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.150726450752205</v>
+        <v>2.358141528579331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.577219622048741</v>
+        <v>1.39995674838293</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.244208618617944</v>
+        <v>3.746560921531258</v>
       </c>
       <c r="C4" t="n">
-        <v>3.938169165738545</v>
+        <v>2.336307608769147</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.601586152572544</v>
+        <v>11.59407588302485</v>
       </c>
       <c r="C5" t="n">
-        <v>5.588516410557862</v>
+        <v>3.04748142210458</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.25991845562747</v>
+        <v>12.86950713831006</v>
       </c>
       <c r="C6" t="n">
-        <v>6.513012223203634</v>
+        <v>3.799986921521622</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.75135790307647</v>
+        <v>13.00052058022762</v>
       </c>
       <c r="C7" t="n">
-        <v>8.405422931889479</v>
+        <v>4.702811255233944</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3631904812343</v>
+        <v>23.16837075043347</v>
       </c>
       <c r="C8" t="n">
-        <v>10.15975726981585</v>
+        <v>5.457175793925451</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.9003433697044</v>
+        <v>23.33131498076093</v>
       </c>
       <c r="C9" t="n">
-        <v>11.35945916044376</v>
+        <v>6.26274671579596</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.8410054943866</v>
+        <v>26.35890585650083</v>
       </c>
       <c r="C10" t="n">
-        <v>12.83607176230392</v>
+        <v>7.090844081829997</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.87942109784392</v>
+        <v>27.56753992672493</v>
       </c>
       <c r="C11" t="n">
-        <v>14.21199504013928</v>
+        <v>7.822934826053727</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.20705044416076</v>
+        <v>37.27215380193955</v>
       </c>
       <c r="C12" t="n">
-        <v>15.29389601625627</v>
+        <v>8.597402731794086</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.32242274167083</v>
+        <v>37.40367343336951</v>
       </c>
       <c r="C13" t="n">
-        <v>16.4154463781211</v>
+        <v>9.449184605905581</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.35559794417452</v>
+        <v>39.77859304251324</v>
       </c>
       <c r="C14" t="n">
-        <v>17.88362057580545</v>
+        <v>9.989053787115578</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.64089859030064</v>
+        <v>41.38806295225672</v>
       </c>
       <c r="C15" t="n">
-        <v>19.15805901441925</v>
+        <v>10.93816672153917</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.5309159641222</v>
+        <v>45.9953815827279</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1600542305689</v>
+        <v>11.86461632877548</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.83206834303117</v>
+        <v>46.10473026860484</v>
       </c>
       <c r="C17" t="n">
-        <v>21.49208457650466</v>
+        <v>12.67810243457209</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.32751870229092</v>
+        <v>50.06956776460472</v>
       </c>
       <c r="C18" t="n">
-        <v>22.88538812269246</v>
+        <v>13.55509340473673</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.78483958777205</v>
+        <v>50.16546488718263</v>
       </c>
       <c r="C19" t="n">
-        <v>24.41043079399535</v>
+        <v>14.26760160741861</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47.99208577642518</v>
+        <v>54.47365246349317</v>
       </c>
       <c r="C20" t="n">
-        <v>25.52498880536278</v>
+        <v>15.25608698137854</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49.0777533188616</v>
+        <v>54.58353742948654</v>
       </c>
       <c r="C21" t="n">
-        <v>26.92101804968579</v>
+        <v>16.02132569791805</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>57.24012635391122</v>
+        <v>55.40627128764899</v>
       </c>
       <c r="C22" t="n">
-        <v>28.03394445089234</v>
+        <v>16.85455078169796</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>57.39648450132128</v>
+        <v>55.49558018726816</v>
       </c>
       <c r="C23" t="n">
-        <v>29.33877597130973</v>
+        <v>17.52642440446178</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>63.77214293094474</v>
+        <v>58.3458078721814</v>
       </c>
       <c r="C24" t="n">
-        <v>30.47089025637887</v>
+        <v>18.03615387578817</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>64.38049044878014</v>
+        <v>58.5298218800695</v>
       </c>
       <c r="C25" t="n">
-        <v>31.52352466781478</v>
+        <v>18.93085835152302</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>64.61268620976939</v>
+        <v>59.87726225404547</v>
       </c>
       <c r="C26" t="n">
-        <v>32.66843378351104</v>
+        <v>19.43587576473157</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>64.98262036128813</v>
+        <v>60.49691183635471</v>
       </c>
       <c r="C27" t="n">
-        <v>34.27456944868039</v>
+        <v>20.76664317653444</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.40585183486191</v>
+        <v>60.5715289547451</v>
       </c>
       <c r="C28" t="n">
-        <v>35.88893361988441</v>
+        <v>21.4069081157275</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.39759712476545</v>
+        <v>63.32388201568553</v>
       </c>
       <c r="C29" t="n">
-        <v>37.46310860268963</v>
+        <v>22.4126073813558</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.56659732835054</v>
+        <v>66.73605128971755</v>
       </c>
       <c r="C30" t="n">
-        <v>38.60494677220269</v>
+        <v>23.32402776704072</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>71.74408307795979</v>
+        <v>67.78121761882453</v>
       </c>
       <c r="C31" t="n">
-        <v>39.76530079576611</v>
+        <v>23.96109288885926</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.55754101170137</v>
+        <v>68.01731728543184</v>
       </c>
       <c r="C32" t="n">
-        <v>40.98916981370547</v>
+        <v>24.78066817435118</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.31487789094273</v>
+        <v>68.15057952205673</v>
       </c>
       <c r="C33" t="n">
-        <v>42.3030633502449</v>
+        <v>25.57147229083767</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>74.60402462480705</v>
+        <v>70.72027583310772</v>
       </c>
       <c r="C34" t="n">
-        <v>43.56082062846907</v>
+        <v>26.31187928544972</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.73933607196061</v>
+        <v>70.81977578461461</v>
       </c>
       <c r="C35" t="n">
-        <v>44.62183575496388</v>
+        <v>27.06695510985734</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.86285598714552</v>
+        <v>71.52305812729104</v>
       </c>
       <c r="C36" t="n">
-        <v>46.18725764287218</v>
+        <v>27.74720835503489</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79.74054223481923</v>
+        <v>78.11192235844234</v>
       </c>
       <c r="C37" t="n">
-        <v>48.21762595609913</v>
+        <v>28.76338176754271</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>80.65281007189321</v>
+        <v>78.22410253066282</v>
       </c>
       <c r="C38" t="n">
-        <v>49.46139137594406</v>
+        <v>29.50318046388015</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.57483978757411</v>
+        <v>79.53187560539477</v>
       </c>
       <c r="C39" t="n">
-        <v>50.7329032278771</v>
+        <v>30.51981960033121</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>86.09112993254575</v>
+        <v>79.71611421259716</v>
       </c>
       <c r="C40" t="n">
-        <v>51.9956548715969</v>
+        <v>31.42654254018872</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>86.859252061644</v>
+        <v>81.14921628671817</v>
       </c>
       <c r="C41" t="n">
-        <v>53.30990294728962</v>
+        <v>32.44601523547607</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89.81830233276317</v>
+        <v>84.81887098196647</v>
       </c>
       <c r="C42" t="n">
-        <v>54.65121047541139</v>
+        <v>33.47723609873309</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90.79321127163733</v>
+        <v>88.30965237004179</v>
       </c>
       <c r="C43" t="n">
-        <v>56.23880171487794</v>
+        <v>34.32468299055528</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>93.9122307999326</v>
+        <v>88.90442744262754</v>
       </c>
       <c r="C44" t="n">
-        <v>57.30589403264904</v>
+        <v>34.90383199887786</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>96.23987054461611</v>
+        <v>89.26248886392386</v>
       </c>
       <c r="C45" t="n">
-        <v>58.3443596683253</v>
+        <v>36.05303214862865</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.40778240781815</v>
+        <v>96.32378327531636</v>
       </c>
       <c r="C46" t="n">
-        <v>59.5032567187323</v>
+        <v>36.5458970903201</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,21 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.89076625661228</v>
+        <v>96.4699439043366</v>
       </c>
       <c r="C47" t="n">
-        <v>60.81106927628833</v>
+        <v>37.3444260571822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>99.49515176249064</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38.46059949670585</v>
       </c>
     </row>
   </sheetData>
